--- a/forms/app/scdsc_investigation.xlsx
+++ b/forms/app/scdsc_investigation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75558A3C-3908-724C-86AD-95EF013E10DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71A6A2-BB7B-3148-AACE-854A60F34623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>order</t>
@@ -55,13 +52,7 @@
     <t>select_yes_no</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
   </si>
   <si>
     <t>required</t>
@@ -382,9 +373,6 @@
     <t>Was the COVID-19 event investigated?</t>
   </si>
   <si>
-    <t>ROW ACTIONS</t>
-  </si>
-  <si>
     <t>Provide a brief description of this COVID-19 event.</t>
   </si>
   <si>
@@ -478,19 +466,10 @@
     <t>discard</t>
   </si>
   <si>
-    <t>Risk classification: ${event_risk_classification}</t>
-  </si>
-  <si>
     <t>select_risk</t>
   </si>
   <si>
-    <t>Change to select_one select_risk</t>
-  </si>
-  <si>
     <t>select_response</t>
-  </si>
-  <si>
-    <t>Change to select_one select_response</t>
   </si>
   <si>
     <t>Thank you for completing the investigation for Signal ID ${signal_id}. No further follow up is needed.</t>
@@ -506,6 +485,168 @@
   </si>
   <si>
     <t>select_one select_response</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Fièvre</t>
+  </si>
+  <si>
+    <t>Toux</t>
+  </si>
+  <si>
+    <t>Difficultés à respirer</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Risque très élevé</t>
+  </si>
+  <si>
+    <t>Risque élevé</t>
+  </si>
+  <si>
+    <t>Risque modéré</t>
+  </si>
+  <si>
+    <t>Risque faible</t>
+  </si>
+  <si>
+    <t>Très faible risque</t>
+  </si>
+  <si>
+    <t>Escalader la réponse au niveau du comté</t>
+  </si>
+  <si>
+    <t>Déployer une ERR</t>
+  </si>
+  <si>
+    <t>Enquête avancée</t>
+  </si>
+  <si>
+    <t>Surveillance renforcée</t>
+  </si>
+  <si>
+    <t>Surveiller</t>
+  </si>
+  <si>
+    <t>Abandonner</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>Identifiant du Signal</t>
+  </si>
+  <si>
+    <t>enquête CSMSD</t>
+  </si>
+  <si>
+    <t>Identifiant du Signal: ${id_signal}</t>
+  </si>
+  <si>
+    <t>L'événement COVID-19 a-t-il fait l'objet d'une enquête?</t>
+  </si>
+  <si>
+    <t>Fournir une brève description de cet événement Covid-19.</t>
+  </si>
+  <si>
+    <t>Sélectionnez les signes et les symptômes rapportés par le patient</t>
+  </si>
+  <si>
+    <t>spécifier autre</t>
+  </si>
+  <si>
+    <t>Est-ce que le patient a eu des antécédents de voyage dans un pays étranger au cours des 14 derniers jours précédant l'apparition des symptômes?</t>
+  </si>
+  <si>
+    <t>Avez-vous été en contact avec un cas confirmé ou probable de covid_19 au cours des 14 derniers jours avant l'apparition des symptômes?</t>
+  </si>
+  <si>
+    <t>N ° de téléphone du patient</t>
+  </si>
+  <si>
+    <t>Avez-vous collecté des échantillons de laboratoire?</t>
+  </si>
+  <si>
+    <t>Avec combien de personnes le patient a été en contact depuis l'apparition des symptômes?</t>
+  </si>
+  <si>
+    <t>Nombre de cas suspects</t>
+  </si>
+  <si>
+    <t>Nombre de cas hospitalisés</t>
+  </si>
+  <si>
+    <t>Nombre de décès</t>
+  </si>
+  <si>
+    <t>Classification des risques</t>
+  </si>
+  <si>
+    <t>Réponse recommandée</t>
+  </si>
+  <si>
+    <t>Détails du signal</t>
+  </si>
+  <si>
+    <t>&lt;Style h4 = "text-align: center;"&gt; ID de signal: ${id_signal} &lt;/ h4&gt; &lt;h4 style = "text-align: center;"&gt; Statut d'enquête de l'événement: ${signal_investigated} &lt;/ h4&gt;</t>
+  </si>
+  <si>
+    <t>Résumé des enquêtes</t>
+  </si>
+  <si>
+    <t>Nombre de personnes exposées: ${no_people_exposed} </t>
+  </si>
+  <si>
+    <t>Nombre de cas suspects: ${no_suspected_cases}</t>
+  </si>
+  <si>
+    <t>Nombre de décès: ${no_human_deaths}</t>
+  </si>
+  <si>
+    <t>Nombre de cas hospitalisés: ${no_human_cases_hospitalized}</t>
+  </si>
+  <si>
+    <t>Tâches de suivi</t>
+  </si>
+  <si>
+    <t>L'enquête sur le statut est en retard</t>
+  </si>
+  <si>
+    <t>Merci d'avoir complété l'enquête pour l'identification du signal ID ${signal_id} . Aucun autre suivi est nécessaire pour l'enquête.</t>
+  </si>
+  <si>
+    <t>Cochez les réponses qui s'appliquent </t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>L'identifiant du signal doit être constitué de 5 à 13 chiffres. Veuillez saisir un identifiant de signal valide.</t>
+  </si>
+  <si>
+    <t>s_event_risk_classification</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${event_risk_classification},'${event_risk_classification}')</t>
+  </si>
+  <si>
+    <t>Risk classification: ${s_event_risk_classification}</t>
+  </si>
+  <si>
+    <t>Classification des risques: ${s_event_risk_classification}</t>
   </si>
 </sst>
 </file>
@@ -591,7 +732,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,12 +755,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -678,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -748,14 +883,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -765,6 +892,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,76 +1255,74 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB849"/>
+  <dimension ref="A1:AB850"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="15"/>
-    <col min="2" max="2" width="25.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="15" customWidth="1"/>
+    <col min="5" max="6" width="14" style="15" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10" style="15" customWidth="1"/>
-    <col min="10" max="10" width="19" style="15" customWidth="1"/>
-    <col min="11" max="11" width="23" style="15" customWidth="1"/>
-    <col min="12" max="12" width="34.1640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" style="15" customWidth="1"/>
+    <col min="8" max="9" width="36.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10" style="15" customWidth="1"/>
+    <col min="11" max="11" width="19" style="15" customWidth="1"/>
+    <col min="12" max="12" width="23" style="15" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" style="15" customWidth="1"/>
     <col min="14" max="22" width="14.5" style="15" customWidth="1"/>
     <col min="23" max="16384" width="17.33203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
-        <v>116</v>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
@@ -1211,28 +1339,28 @@
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="B2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>47</v>
+      <c r="D2" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
-        <v>45</v>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>42</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="15">
         <v>0</v>
       </c>
-      <c r="L2" s="12"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
@@ -1250,25 +1378,25 @@
       <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
-        <v>50</v>
+      <c r="A3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>47</v>
+      <c r="D3" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
-        <v>52</v>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
+        <v>49</v>
       </c>
-      <c r="L3" s="12"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -1286,19 +1414,20 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23" t="s">
-        <v>48</v>
+      <c r="A4" s="23" t="s">
+        <v>45</v>
       </c>
+      <c r="B4" s="23"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="12"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -1316,14 +1445,17 @@
       <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>27</v>
+      <c r="D5" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1334,7 +1466,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -1352,33 +1484,38 @@
       <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
+      <c r="D6" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>13</v>
+      <c r="I6" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -1396,26 +1533,29 @@
       <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
-        <v>44</v>
+      <c r="A7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>114</v>
+      <c r="D7" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="13" t="s">
-        <v>13</v>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>45</v>
+      <c r="K7" s="13" t="s">
+        <v>42</v>
       </c>
-      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -1434,23 +1574,26 @@
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="B8" s="13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>59</v>
+      <c r="D8" s="36" t="s">
+        <v>172</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="13" t="s">
-        <v>13</v>
+      <c r="I8" s="21"/>
+      <c r="J8" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1470,23 +1613,26 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>60</v>
+      <c r="C9" s="15" t="s">
+        <v>112</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>115</v>
+      <c r="D9" s="36" t="s">
+        <v>173</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="13" t="s">
-        <v>13</v>
+      <c r="I9" s="21"/>
+      <c r="J9" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1506,27 +1652,30 @@
       <c r="AB9" s="13"/>
     </row>
     <row r="10" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>34</v>
+      <c r="C10" s="15" t="s">
+        <v>113</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>117</v>
+      <c r="D10" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
-        <v>13</v>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
-        <v>84</v>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1544,29 +1693,34 @@
       <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="B11" s="13" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>67</v>
+      <c r="C11" s="15" t="s">
+        <v>116</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>120</v>
+      <c r="D11" s="36" t="s">
+        <v>175</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="27" t="s">
-        <v>119</v>
+      <c r="E11" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>84</v>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1584,27 +1738,30 @@
       <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:28" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>68</v>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>61</v>
+      <c r="D12" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
-        <v>86</v>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>83</v>
       </c>
-      <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -1622,27 +1779,30 @@
       <c r="AA12" s="13"/>
     </row>
     <row r="13" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>69</v>
+      <c r="C13" s="15" t="s">
+        <v>118</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>122</v>
+      <c r="D13" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
-        <v>13</v>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
-        <v>84</v>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1660,28 +1820,29 @@
       <c r="AA13" s="13"/>
     </row>
     <row r="14" spans="1:28" ht="42" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="13" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>70</v>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>121</v>
+      <c r="D14" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
-        <v>13</v>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1700,27 +1861,30 @@
       <c r="AA14" s="13"/>
     </row>
     <row r="15" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="B15" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>71</v>
+      <c r="C15" s="15" t="s">
+        <v>119</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>123</v>
+      <c r="D15" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
-        <v>13</v>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13" t="s">
-        <v>88</v>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>85</v>
       </c>
-      <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -1738,27 +1902,30 @@
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>72</v>
+      <c r="C16" s="15" t="s">
+        <v>120</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>124</v>
+      <c r="D16" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
-        <v>13</v>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="s">
-        <v>84</v>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -1776,27 +1943,30 @@
       <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>125</v>
+      <c r="D17" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
-        <v>13</v>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13" t="s">
-        <v>84</v>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -1814,26 +1984,30 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>87</v>
+      <c r="C18" s="15" t="s">
+        <v>59</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>62</v>
+      <c r="D18" s="36" t="s">
+        <v>182</v>
       </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
-        <v>13</v>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13" t="s">
-        <v>84</v>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -1851,26 +2025,30 @@
       <c r="AA18" s="13"/>
     </row>
     <row r="19" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>42</v>
+      <c r="C19" s="15" t="s">
+        <v>60</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>63</v>
+      <c r="D19" s="36" t="s">
+        <v>183</v>
       </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
-        <v>13</v>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13" t="s">
-        <v>84</v>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -1888,26 +2066,30 @@
       <c r="AA19" s="13"/>
     </row>
     <row r="20" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>43</v>
+      <c r="C20" s="15" t="s">
+        <v>61</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>64</v>
+      <c r="D20" s="36" t="s">
+        <v>184</v>
       </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13" t="s">
-        <v>84</v>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -1924,31 +2106,31 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21" spans="1:27" ht="42" x14ac:dyDescent="0.15">
-      <c r="A21" s="31" t="s">
-        <v>150</v>
+    <row r="21" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>149</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>156</v>
+      <c r="B21" s="13" t="s">
+        <v>147</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>154</v>
+      <c r="C21" s="15" t="s">
+        <v>62</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>65</v>
+      <c r="D21" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13" t="s">
-        <v>13</v>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
-        <v>84</v>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -1965,31 +2147,31 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
     </row>
-    <row r="22" spans="1:27" ht="42" x14ac:dyDescent="0.15">
-      <c r="A22" s="31" t="s">
-        <v>152</v>
+    <row r="22" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>150</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>157</v>
+      <c r="B22" s="13" t="s">
+        <v>148</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>155</v>
+      <c r="C22" s="15" t="s">
+        <v>63</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>66</v>
+      <c r="D22" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
-        <v>13</v>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13" t="s">
-        <v>84</v>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -2007,11 +2189,12 @@
       <c r="AA22" s="13"/>
     </row>
     <row r="23" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
-        <v>48</v>
+      <c r="A23" s="23" t="s">
+        <v>45</v>
       </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -2037,18 +2220,17 @@
       <c r="AA23" s="13"/>
     </row>
     <row r="24" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="15" t="s">
-        <v>44</v>
+      <c r="A24" s="15" t="s">
+        <v>41</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>89</v>
+      <c r="B24" s="13" t="s">
+        <v>86</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="28"/>
-      <c r="J24" s="15" t="s">
-        <v>90</v>
+      <c r="C24" s="13"/>
+      <c r="D24" s="36"/>
+      <c r="K24" s="15" t="s">
+        <v>87</v>
       </c>
-      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -2067,17 +2249,20 @@
       <c r="AA24" s="13"/>
     </row>
     <row r="25" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="15" t="s">
-        <v>46</v>
+      <c r="A25" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>91</v>
+      <c r="B25" s="13" t="s">
+        <v>88</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>92</v>
+      <c r="C25" s="22" t="s">
+        <v>89</v>
       </c>
-      <c r="J25" s="28" t="s">
-        <v>93</v>
+      <c r="D25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
@@ -2086,14 +2271,17 @@
       <c r="AA25" s="13"/>
     </row>
     <row r="26" spans="1:27" ht="42" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
-        <v>46</v>
+      <c r="A26" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>94</v>
+      <c r="B26" s="13" t="s">
+        <v>91</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>104</v>
+      <c r="C26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
@@ -2102,20 +2290,23 @@
       <c r="AA26" s="13"/>
     </row>
     <row r="27" spans="1:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B27" s="15" t="s">
-        <v>46</v>
+      <c r="A27" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>95</v>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>96</v>
+      <c r="C27" s="22" t="s">
+        <v>93</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>97</v>
+      <c r="D27" s="36" t="s">
+        <v>189</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>84</v>
+      <c r="K27" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
@@ -2124,17 +2315,20 @@
       <c r="AA27" s="13"/>
     </row>
     <row r="28" spans="1:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B28" s="15" t="s">
-        <v>46</v>
+      <c r="A28" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>109</v>
+      <c r="B28" s="13" t="s">
+        <v>106</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>105</v>
+      <c r="C28" s="15" t="s">
+        <v>102</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>84</v>
+      <c r="D28" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
@@ -2143,17 +2337,20 @@
       <c r="AA28" s="13"/>
     </row>
     <row r="29" spans="1:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
-        <v>46</v>
+      <c r="A29" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>110</v>
+      <c r="B29" s="13" t="s">
+        <v>107</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>106</v>
+      <c r="C29" s="15" t="s">
+        <v>103</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>84</v>
+      <c r="D29" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
@@ -2162,17 +2359,20 @@
       <c r="AA29" s="13"/>
     </row>
     <row r="30" spans="1:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B30" s="15" t="s">
-        <v>46</v>
+      <c r="A30" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>84</v>
+      <c r="C30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -2181,17 +2381,20 @@
       <c r="AA30" s="13"/>
     </row>
     <row r="31" spans="1:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
-        <v>46</v>
+      <c r="A31" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>112</v>
+      <c r="B31" s="13" t="s">
+        <v>109</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>107</v>
+      <c r="C31" s="15" t="s">
+        <v>104</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>84</v>
+      <c r="D31" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
@@ -2199,18 +2402,17 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32" spans="1:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B32" s="15" t="s">
-        <v>46</v>
+    <row r="32" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>14</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>113</v>
+      <c r="B32" s="13" t="s">
+        <v>201</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>84</v>
+      <c r="D32" s="36"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -2218,18 +2420,21 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" spans="2:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
-        <v>46</v>
+    <row r="33" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>98</v>
+      <c r="B33" s="13" t="s">
+        <v>110</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>99</v>
+      <c r="C33" s="15" t="s">
+        <v>203</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>97</v>
+      <c r="D33" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
@@ -2237,18 +2442,21 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
     </row>
-    <row r="34" spans="2:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
-        <v>46</v>
+    <row r="34" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>101</v>
+      <c r="B34" s="13" t="s">
+        <v>95</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>100</v>
+      <c r="C34" s="29" t="s">
+        <v>96</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>103</v>
+      <c r="D34" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
@@ -2256,18 +2464,21 @@
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
     </row>
-    <row r="35" spans="2:27" ht="28" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
-        <v>46</v>
+    <row r="35" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>102</v>
+      <c r="B35" s="13" t="s">
+        <v>98</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>153</v>
+      <c r="C35" s="30" t="s">
+        <v>97</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>84</v>
+      <c r="D35" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
@@ -2275,9 +2486,21 @@
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
     </row>
-    <row r="36" spans="2:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
-        <v>48</v>
+    <row r="36" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
@@ -2285,84 +2508,87 @@
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
     </row>
-    <row r="37" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
     </row>
-    <row r="38" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
     </row>
-    <row r="39" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
     </row>
-    <row r="40" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
     </row>
-    <row r="41" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
     </row>
-    <row r="42" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
     </row>
-    <row r="43" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
     </row>
-    <row r="44" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
     </row>
-    <row r="45" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
     </row>
-    <row r="46" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
     </row>
-    <row r="47" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
     </row>
-    <row r="48" spans="2:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -7976,24 +8202,28 @@
       <c r="Z849" s="13"/>
       <c r="AA849" s="13"/>
     </row>
+    <row r="850" spans="23:27" ht="13" x14ac:dyDescent="0.15">
+      <c r="W850" s="13"/>
+      <c r="X850" s="13"/>
+      <c r="Y850" s="13"/>
+      <c r="Z850" s="13"/>
+      <c r="AA850" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G2:J3 C3:E3 D2:E2 B4:K4">
+  <conditionalFormatting sqref="G2:K3 B3:C3 C2 A4:C4 E4:L4">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="begin group"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="A2:B2">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="begin group"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="begin group"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="begin group"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="A7">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="begin group"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="A23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="begin group"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8005,22 +8235,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="19" customWidth="1"/>
-    <col min="4" max="13" width="14.5" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="17.33203125" style="19"/>
+    <col min="3" max="4" width="38.33203125" style="19" customWidth="1"/>
+    <col min="5" max="14" width="14.5" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="17.33203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8028,25 +8258,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="36" t="s">
+        <v>151</v>
+      </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -8069,18 +8304,21 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA2" s="16"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="36" t="s">
+        <v>152</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -8103,18 +8341,21 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA3" s="16"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="36" t="s">
+        <v>153</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8137,18 +8378,21 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA4" s="16"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="36" t="s">
+        <v>154</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -8171,18 +8415,21 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA5" s="16"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="36" t="s">
+        <v>155</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -8205,18 +8452,21 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA6" s="16"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="36" t="s">
+        <v>156</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -8239,18 +8489,21 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA7" s="16"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>83</v>
+      <c r="D8" s="36" t="s">
+        <v>157</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -8273,372 +8526,406 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>149</v>
+      <c r="AA8" s="16"/>
+    </row>
+    <row r="9" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>144</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+    </row>
+    <row r="10" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+    </row>
+    <row r="11" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+    </row>
+    <row r="12" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+    </row>
+    <row r="13" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-    </row>
-    <row r="10" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
-        <v>149</v>
+      <c r="D13" s="36" t="s">
+        <v>162</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+    </row>
+    <row r="14" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C14" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+    </row>
+    <row r="15" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-    </row>
-    <row r="11" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
-        <v>149</v>
+      <c r="D15" s="36" t="s">
+        <v>164</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>138</v>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+    </row>
+    <row r="16" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
+        <v>145</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="B16" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-    </row>
-    <row r="12" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
-        <v>149</v>
+      <c r="D16" s="36" t="s">
+        <v>165</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>139</v>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+    </row>
+    <row r="17" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="31" t="s">
+        <v>145</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="B17" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-    </row>
-    <row r="13" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
-        <v>149</v>
+      <c r="D17" s="36" t="s">
+        <v>166</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>140</v>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+    </row>
+    <row r="18" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31" t="s">
+        <v>145</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="B18" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
-        <v>151</v>
+      <c r="D18" s="36" t="s">
+        <v>167</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>141</v>
+    </row>
+    <row r="19" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>145</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-    </row>
-    <row r="15" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-    </row>
-    <row r="16" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
-        <v>151</v>
+      <c r="D19" s="36" t="s">
+        <v>168</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-    </row>
-    <row r="17" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-    </row>
-    <row r="18" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
     </row>
-    <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
     </row>
-    <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
     </row>
-    <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
     </row>
     <row r="33" spans="1:1" ht="13" x14ac:dyDescent="0.15">
@@ -11575,25 +11862,25 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -12616,23 +12903,23 @@
     </row>
     <row r="2" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -13656,16 +13943,16 @@
     <row r="3" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="11"/>
       <c r="F3" s="8"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -14683,16 +14970,16 @@
     <row r="4" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="11"/>
       <c r="F4" s="8"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -15710,16 +15997,16 @@
     <row r="5" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="11"/>
       <c r="F5" s="8"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -17763,19 +18050,19 @@
     </row>
     <row r="7" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -18791,8 +19078,8 @@
     <row r="8" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="11"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -19825,9 +20112,9 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -20845,8 +21132,8 @@
     <row r="10" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -21872,8 +22159,8 @@
     <row r="11" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -22899,8 +23186,8 @@
     <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -23926,8 +24213,8 @@
     <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
